--- a/biology/Médecine/Muscle_semi-membraneux/Muscle_semi-membraneux.xlsx
+++ b/biology/Médecine/Muscle_semi-membraneux/Muscle_semi-membraneux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle semi-membraneux (ou muscle demi-membraneux) est un muscle du membre inférieur situé dans la cuisse.
 Il appartient au groupe des muscles ischio-jambiers et est contenu dans la loge fémorale postérieure.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle semi-membraneux est un long muscle situé à l'arrière de la cuisse.
 Il relie l'os coxal au tibia. Il est bi-articulaire : articulation coxale et articulation du genou.
@@ -545,7 +559,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se fixe par une lame aponévrotique sur la face postérieure de la tubérosité ischiatique en dehors de l'origine du muscle semi-tendineux.
 </t>
@@ -576,7 +592,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La lame aponévrotique descend jusqu'au milieu de la cuisse où elle forme un corps musculaire.
 </t>
@@ -607,7 +625,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle semi-membraneux s'achève par trois tendons au niveau de l'arrière de l'articulation du genou:
 un tendon direct qui s'insère sur la face postérieure du condyle médial du tibia,
@@ -642,7 +662,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle semi-membraneux est innervé le nerf tibial branche du nerf ischiatique.
 </t>
@@ -673,7 +695,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle semi-membraneux est vascularisé par l'artère profonde de la cuisse et l'artère fessière.
 </t>
@@ -704,7 +728,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle semi-membraneux est:
 fléchisseur de la jambe sur la cuisse.
